--- a/biology/Botanique/Domaine_de_Chaumont-sur-Loire/Domaine_de_Chaumont-sur-Loire.xlsx
+++ b/biology/Botanique/Domaine_de_Chaumont-sur-Loire/Domaine_de_Chaumont-sur-Loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine de Chaumont-sur-Loire est un établissement public de coopération culturelle, propriété depuis 2008 de la région Centre-Val de Loire, qui est l'une des premières collectivités territoriales à s'être portée candidate à l'acquisition d'un domaine national. En raison de son passé et de son exceptionnelle situation en bord de Loire, paysage classé au patrimoine mondial de l’UNESCO, le domaine de Chaumont-sur-Loire est particulièrement prestigieux.
 Cet établissement public a pour mission d’assurer, d’une part, la protection et la mise en valeur de l’ensemble des composantes immobilières et mobilières du domaine, comprenant le château de Chaumont-sur-Loire, les écuries, les dépendances, le parc et les collections, et d’autre part, de développer un ensemble d’activités centrées sur la création contemporaine, dans le château et dans le parc, incluant le Festival international des jardins, créé en 1992.
